--- a/data/holiday_rugby.xlsx
+++ b/data/holiday_rugby.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bahmanrostami-tabar/Documents/Research/Work with Rob Hyndman/forecasting-emergency-medcine/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4E406E1-0633-6646-BD15-E793A42440E4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5E0118A-B8CD-F04B-AC9A-39BA86077E27}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6400" yWindow="3300" windowWidth="25600" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Holiday_rugby" sheetId="1" r:id="rId1"/>
@@ -994,7 +994,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1401"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="H78" sqref="H78"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
